--- a/_sources/Sportverseny/sportverseny.xlsx
+++ b/_sources/Sportverseny/sportverseny.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nandi\Asztal\Verseny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Public\Iskola\Tanmenetek\2022-2023\13sz\Vizsgaremek\Feladatkiosztás\_sources\Sportverseny\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9910C5-C286-437F-A2A1-684D52EB4185}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12192" windowHeight="8280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12192" windowHeight="8280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Végeredmény" sheetId="3" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Paraméterek" sheetId="2" r:id="rId3"/>
     <sheet name="Munka1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Kovács Nándor</author>
   </authors>
   <commentList>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -747,7 +748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -938,14 +939,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,7 +1041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="70.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="71.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1780,11 +1781,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1794,7 +1795,7 @@
     <col min="3" max="3" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1943,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
